--- a/ePICreator/HIPÉRICO ARKOPHARMA.xlsx
+++ b/ePICreator/HIPÉRICO ARKOPHARMA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9A7A6F-C4B8-3745-8357-5DF86D8D53FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9383BE25-A2CD-BE49-A049-2C4505191709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -1458,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1580,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2099,7 +2099,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ePICreator/HIPÉRICO ARKOPHARMA.xlsx
+++ b/ePICreator/HIPÉRICO ARKOPHARMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9383BE25-A2CD-BE49-A049-2C4505191709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4968A005-544C-BF43-B539-1D3BB0221B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="151">
   <si>
     <t>id</t>
   </si>
@@ -377,9 +377,6 @@
   </si>
   <si>
     <t>packaging_quantity</t>
-  </si>
-  <si>
-    <t>cc</t>
   </si>
   <si>
     <t>mg</t>
@@ -818,7 +815,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1193,7 +1190,7 @@
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
         <v>105</v>
@@ -1202,13 +1199,13 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="18">
         <v>100000073681</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H2">
         <v>200000002152</v>
@@ -1299,10 +1296,10 @@
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -1317,10 +1314,10 @@
         <v>43</v>
       </c>
       <c r="I2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
@@ -1384,7 +1381,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1458,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1528,14 +1525,12 @@
     <row r="2" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
         <v>57</v>
       </c>
@@ -1543,32 +1538,32 @@
         <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1643,10 +1638,10 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
         <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1667,19 +1662,19 @@
         <v>175</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
         <v>122</v>
       </c>
-      <c r="C3" t="s">
-        <v>123</v>
-      </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="5">
         <v>100000072082</v>
@@ -1693,18 +1688,18 @@
         <v>140</v>
       </c>
       <c r="L3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
         <v>124</v>
       </c>
-      <c r="C4" t="s">
-        <v>125</v>
-      </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4">
         <v>100000072082</v>
@@ -1716,18 +1711,18 @@
         <v>3.3</v>
       </c>
       <c r="L4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5">
         <v>100000072082</v>
@@ -1739,18 +1734,18 @@
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
         <v>127</v>
       </c>
-      <c r="C6" t="s">
-        <v>128</v>
-      </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6">
         <v>100000072082</v>
@@ -1762,7 +1757,7 @@
         <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1829,7 +1824,7 @@
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2">
         <v>79963</v>
@@ -1838,13 +1833,13 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="18">
         <v>100000073681</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H2">
         <v>200000002152</v>
@@ -1945,25 +1940,25 @@
     </row>
     <row r="2" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="11">
         <v>79963</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
         <v>131</v>
       </c>
-      <c r="F2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" t="s">
-        <v>132</v>
-      </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I2" t="s">
         <v>103</v>
@@ -2055,7 +2050,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>105</v>
@@ -2076,7 +2071,7 @@
         <v>33</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
         <v>102</v>
@@ -2197,13 +2192,13 @@
         <v>85</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -2212,7 +2207,7 @@
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I2">
         <v>123456</v>
@@ -2227,13 +2222,13 @@
         <v>30</v>
       </c>
       <c r="M2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" t="s">
         <v>117</v>
-      </c>
-      <c r="N2" t="s">
-        <v>119</v>
-      </c>
-      <c r="P2" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2293,7 +2288,7 @@
     <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="11">
         <v>79963</v>
@@ -2305,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>

--- a/ePICreator/HIPÉRICO ARKOPHARMA.xlsx
+++ b/ePICreator/HIPÉRICO ARKOPHARMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4968A005-544C-BF43-B539-1D3BB0221B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAB85D1-9994-354D-8C32-8CE6E10D1240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -652,10 +652,10 @@
         &lt;/div&gt;</t>
   </si>
   <si>
-    <t>https://cima.aemps.es/ids</t>
-  </si>
-  <si>
     <t>es</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/pmswi</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1538,7 +1538,7 @@
         <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="6" t="s">
@@ -1855,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1946,7 +1946,7 @@
         <v>79963</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
         <v>130</v>
@@ -1986,9 +1986,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{9ECE518B-5D5E-EF4D-97C4-DC926141318E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/ePICreator/HIPÉRICO ARKOPHARMA.xlsx
+++ b/ePICreator/HIPÉRICO ARKOPHARMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAB85D1-9994-354D-8C32-8CE6E10D1240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FE9234-E72D-4546-83EF-D4CB7D6C7FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="151">
   <si>
     <t>id</t>
   </si>
@@ -1338,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1382,6 +1382,9 @@
       </c>
       <c r="E2" t="s">
         <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1855,7 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
